--- a/patho_core_inventory.xlsx
+++ b/patho_core_inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44564dbd82e85354/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\patho_core_inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{6863822D-F053-4617-9881-0265DFF0BBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C9A504E-3F5E-471A-A54B-62F1D23B4258}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F696A7E-7896-4C1C-AE3A-45B210214033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{F37D82DA-1C0D-4E97-A203-1B35A9C9D6CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Item_description</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>delivery date</t>
+  </si>
+  <si>
+    <t>StatLab</t>
+  </si>
+  <si>
+    <t>VWR Scientific company</t>
+  </si>
+  <si>
+    <t>Fisher scientific</t>
+  </si>
+  <si>
+    <t>vender</t>
   </si>
 </sst>
 </file>
@@ -227,10 +239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,342 +558,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519E017B-AE3B-49CD-A8AD-91A549FFF5D5}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="84.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>80626</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>46113</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
         <v>6769001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>154219</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>46866</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>154988</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>46341</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
         <v>71204</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>45884</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
         <v>7211</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>45772</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
         <v>6615</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>156522</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>47300</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
         <v>150</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
         <v>5735</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>156523</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>47309</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
         <v>71225</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>155477</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>46522</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
         <v>7401</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>152637</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>46464</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>45881</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>46599</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>45882</v>
       </c>
     </row>

--- a/patho_core_inventory.xlsx
+++ b/patho_core_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\patho_core_inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F696A7E-7896-4C1C-AE3A-45B210214033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF5B2D8-135C-4C22-A19E-3430043E8792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{F37D82DA-1C0D-4E97-A203-1B35A9C9D6CC}"/>
+    <workbookView xWindow="168" yWindow="2964" windowWidth="23040" windowHeight="12228" xr2:uid="{F37D82DA-1C0D-4E97-A203-1B35A9C9D6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="August 2025" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="49">
   <si>
     <t>Item_description</t>
   </si>
@@ -119,15 +119,6 @@
     <t xml:space="preserve">4 x 5L </t>
   </si>
   <si>
-    <t>10% neutral buffered formalin 5L</t>
-  </si>
-  <si>
-    <t>over flamable cabinet</t>
-  </si>
-  <si>
-    <t>Eosin-Y Alcoholic series R 2.5 gal</t>
-  </si>
-  <si>
     <t>2.5 gal</t>
   </si>
   <si>
@@ -168,12 +159,39 @@
   </si>
   <si>
     <t>vender</t>
+  </si>
+  <si>
+    <t>in_service_date</t>
+  </si>
+  <si>
+    <t>removed_date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>in storage</t>
+  </si>
+  <si>
+    <t>minimum_instock_qty</t>
+  </si>
+  <si>
+    <t>under ph meter bence</t>
+  </si>
+  <si>
+    <t>eosin-Y Alcoholic series 2.5 GAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,12 +215,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,13 +241,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519E017B-AE3B-49CD-A8AD-91A549FFF5D5}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,16 +599,18 @@
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -591,30 +622,48 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -625,28 +674,34 @@
       <c r="E2" s="1">
         <v>46113</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>539.44000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>6769001</v>
@@ -657,281 +712,1418 @@
       <c r="E3" s="1">
         <v>46866</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>6769001</v>
+      </c>
+      <c r="D4">
+        <v>154219</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46866</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>6769001</v>
+      </c>
+      <c r="D5">
+        <v>154219</v>
+      </c>
+      <c r="E5" s="1">
+        <v>46866</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>6769001</v>
+      </c>
+      <c r="D6">
+        <v>154219</v>
+      </c>
+      <c r="E6" s="1">
+        <v>46866</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>6769001</v>
+      </c>
+      <c r="D7">
+        <v>154219</v>
+      </c>
+      <c r="E7" s="1">
+        <v>46866</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>6769001</v>
+      </c>
+      <c r="D8">
+        <v>154219</v>
+      </c>
+      <c r="E8" s="1">
+        <v>46866</v>
+      </c>
+      <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>71225</v>
+      </c>
+      <c r="D9">
+        <v>155477</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46522</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>154988</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E10" s="1">
         <v>46341</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>843.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>71204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45884</v>
+      </c>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45264</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
         <v>71204</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E12" s="1">
         <v>45884</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45264</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>71204</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45884</v>
+      </c>
+      <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="L13" s="1">
+        <v>45264</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
         <v>7211</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E14" s="1">
         <v>45772</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45264</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>7211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45772</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45264</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>7211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45772</v>
+      </c>
+      <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="L16" s="1">
+        <v>45264</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
         <v>6615</v>
       </c>
-      <c r="D7">
+      <c r="D17">
         <v>156522</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E17" s="1">
         <v>47300</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="H17">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>6615</v>
+      </c>
+      <c r="D18">
+        <v>156522</v>
+      </c>
+      <c r="E18" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>6615</v>
+      </c>
+      <c r="D19">
+        <v>156522</v>
+      </c>
+      <c r="E19" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>6615</v>
+      </c>
+      <c r="D20">
+        <v>156522</v>
+      </c>
+      <c r="E20" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>6615</v>
+      </c>
+      <c r="D21">
+        <v>156522</v>
+      </c>
+      <c r="E21" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>6615</v>
+      </c>
+      <c r="D22">
+        <v>156522</v>
+      </c>
+      <c r="E22" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>6615</v>
+      </c>
+      <c r="D23">
+        <v>156522</v>
+      </c>
+      <c r="E23" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>6615</v>
+      </c>
+      <c r="D24">
+        <v>156522</v>
+      </c>
+      <c r="E24" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>6615</v>
+      </c>
+      <c r="D25">
+        <v>156522</v>
+      </c>
+      <c r="E25" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F25" s="4">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>6615</v>
+      </c>
+      <c r="D26">
+        <v>156522</v>
+      </c>
+      <c r="E26" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>6615</v>
+      </c>
+      <c r="D27">
+        <v>156522</v>
+      </c>
+      <c r="E27" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>6615</v>
+      </c>
+      <c r="D28">
+        <v>156522</v>
+      </c>
+      <c r="E28" s="1">
+        <v>47300</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="4">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>7401</v>
+      </c>
+      <c r="D35">
+        <v>152637</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46464</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>7401</v>
+      </c>
+      <c r="D36">
+        <v>152637</v>
+      </c>
+      <c r="E36" s="1">
+        <v>46464</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>7401</v>
+      </c>
+      <c r="D37">
+        <v>152637</v>
+      </c>
+      <c r="E37" s="1">
+        <v>46464</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>7401</v>
+      </c>
+      <c r="D38">
+        <v>152637</v>
+      </c>
+      <c r="E38" s="1">
+        <v>46464</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45881</v>
+      </c>
+      <c r="O38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8">
-        <v>150</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>5735</v>
-      </c>
-      <c r="D9" s="1">
-        <v>156523</v>
-      </c>
-      <c r="E9" s="1">
-        <v>47309</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1">
+        <v>46599</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>71225</v>
-      </c>
-      <c r="D10">
-        <v>155477</v>
-      </c>
-      <c r="E10" s="1">
-        <v>46522</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
-        <v>7401</v>
-      </c>
-      <c r="D11">
-        <v>152637</v>
-      </c>
-      <c r="E11" s="1">
-        <v>46464</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45882</v>
+      </c>
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1">
+        <v>46599</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45882</v>
+      </c>
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1">
+        <v>46599</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45882</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="1">
+        <v>46599</v>
+      </c>
+      <c r="F42" s="4">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="1">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1">
-        <v>46599</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G42" t="s">
         <v>25</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="1">
         <v>45882</v>
+      </c>
+      <c r="O42" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
